--- a/resources/experiment 2/metrics/R2/average time/Amputación extremidades inferiores.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Amputación extremidades inferiores.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8860399364920631</v>
+        <v>0.8860399364920633</v>
       </c>
       <c r="C2" t="n">
         <v>0.8860399364920631</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9358007599026195</v>
+        <v>0.9948158510317802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9358007599026195</v>
+        <v>0.994850533403372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9358007599026195</v>
+        <v>0.9550569337232394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9967231099024554</v>
+        <v>0.9937780421949309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967231099024554</v>
+        <v>0.9938701477839333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9967231099024554</v>
+        <v>0.873371552548846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.793103774071136</v>
+        <v>0.9965814453913229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.793103774071136</v>
+        <v>0.9965925276141196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.793103774071136</v>
+        <v>0.9950614347314789</v>
       </c>
     </row>
   </sheetData>
